--- a/data/trans_camb/P16A97-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A97-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 27,55</t>
+          <t>6,35; 28,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 29,25</t>
+          <t>7,66; 30,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,21; -1,49</t>
+          <t>-13,28; -1,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 40,14</t>
+          <t>8,77; 40,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 36,7</t>
+          <t>5,23; 37,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,38; -5,39</t>
+          <t>-21,43; -5,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,68; 28,14</t>
+          <t>10,8; 29,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 29,32</t>
+          <t>10,36; 29,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -3,93</t>
+          <t>-13,51; -3,86</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,06; 1325,47</t>
+          <t>40,51; 1714,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 1322,45</t>
+          <t>42,59; 1630,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,37; 650,59</t>
+          <t>36,14; 870,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,62; 670,65</t>
+          <t>23,73; 744,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,43; 611,57</t>
+          <t>81,33; 609,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,39; 646,83</t>
+          <t>79,12; 659,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 19,33</t>
+          <t>8,91; 19,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,31</t>
+          <t>2,04; 10,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -4,08</t>
+          <t>-9,14; -4,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,53; 29,62</t>
+          <t>15,12; 29,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 21,41</t>
+          <t>8,45; 21,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -8,34</t>
+          <t>-16,18; -8,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 21,89</t>
+          <t>13,84; 22,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 13,7</t>
+          <t>6,16; 14,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -6,72</t>
+          <t>-10,9; -6,6</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>110,29; 438,28</t>
+          <t>107,16; 428,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 225,2</t>
+          <t>23,82; 224,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>104,57; 335,09</t>
+          <t>104,0; 306,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,48; 213,94</t>
+          <t>57,4; 225,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>132,37; 302,16</t>
+          <t>129,73; 308,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,84; 187,25</t>
+          <t>59,02; 195,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,77; 17,44</t>
+          <t>10,61; 17,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,04</t>
+          <t>6,89; 13,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -2,17</t>
+          <t>-5,04; -2,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,47; 30,57</t>
+          <t>19,2; 30,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 19,73</t>
+          <t>9,33; 19,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -8,65</t>
+          <t>-14,53; -8,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,95; 21,99</t>
+          <t>15,82; 22,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,26; 15,16</t>
+          <t>9,56; 15,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -5,37</t>
+          <t>-8,42; -5,3</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>231,72; 751,54</t>
+          <t>203,02; 751,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>133,79; 545,18</t>
+          <t>135,22; 565,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>146,36; 350,04</t>
+          <t>143,01; 339,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,23; 217,34</t>
+          <t>67,69; 215,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>195,58; 390,68</t>
+          <t>194,57; 393,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>117,71; 276,5</t>
+          <t>112,01; 262,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 13,61</t>
+          <t>5,28; 13,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 10,11</t>
+          <t>2,83; 10,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -2,94</t>
+          <t>-7,62; -2,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,17; 30,24</t>
+          <t>18,04; 30,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 14,78</t>
+          <t>4,42; 14,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -5,6</t>
+          <t>-11,96; -5,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,79; 19,87</t>
+          <t>12,86; 19,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,68; 11,1</t>
+          <t>4,88; 10,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -4,71</t>
+          <t>-8,45; -4,82</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>76,05; 407,45</t>
+          <t>75,38; 406,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,53; 305,17</t>
+          <t>37,1; 313,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>164,58; 493,24</t>
+          <t>163,03; 477,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40,91; 242,24</t>
+          <t>38,88; 230,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>158,7; 389,8</t>
+          <t>162,92; 395,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>61,74; 223,8</t>
+          <t>58,63; 210,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,86; 18,56</t>
+          <t>11,05; 18,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,64; 12,14</t>
+          <t>5,48; 11,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -2,18</t>
+          <t>-5,15; -2,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,92; 33,08</t>
+          <t>22,48; 32,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,21; 19,99</t>
+          <t>9,82; 19,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -6,57</t>
+          <t>-12,03; -6,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,44; 23,89</t>
+          <t>17,24; 23,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,92; 14,9</t>
+          <t>9,15; 15,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -4,61</t>
+          <t>-7,44; -4,54</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>224,78; 818,31</t>
+          <t>225,34; 779,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>120,85; 491,15</t>
+          <t>125,44; 506,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>204,91; 482,41</t>
+          <t>203,34; 481,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>89,83; 286,22</t>
+          <t>83,5; 275,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>242,49; 488,59</t>
+          <t>245,26; 506,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>127,15; 303,79</t>
+          <t>130,92; 306,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,46; 15,22</t>
+          <t>11,35; 15,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,29</t>
+          <t>6,74; 10,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -3,45</t>
+          <t>-5,21; -3,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>22,37; 27,99</t>
+          <t>21,66; 27,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,2</t>
+          <t>11,02; 16,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -8,72</t>
+          <t>-11,79; -8,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>16,89; 20,22</t>
+          <t>16,91; 20,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,52; 12,64</t>
+          <t>9,37; 12,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -6,1</t>
+          <t>-7,66; -6,02</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>227,6; 420,37</t>
+          <t>232,26; 429,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>135,27; 295,8</t>
+          <t>134,83; 282,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>195,99; 306,98</t>
+          <t>194,7; 318,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>100,39; 180,62</t>
+          <t>95,79; 183,11</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>225,26; 321,02</t>
+          <t>226,33; 324,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>124,4; 198,62</t>
+          <t>125,23; 198,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_camb/P16A97-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A97-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 28,3</t>
+          <t>5,29; 27,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 30,47</t>
+          <t>6,92; 29,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -1,43</t>
+          <t>-14,55; -1,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,77; 40,35</t>
+          <t>5,69; 39,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 37,97</t>
+          <t>6,94; 39,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,43; -5,29</t>
+          <t>-22,1; -3,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,8; 29,89</t>
+          <t>9,78; 28,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 29,22</t>
+          <t>9,82; 29,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -3,86</t>
+          <t>-14,39; -4,1</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,51; 1714,33</t>
+          <t>20,13; 1315,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,59; 1630,9</t>
+          <t>43,71; 1416,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,14; 870,51</t>
+          <t>25,61; 747,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,73; 744,26</t>
+          <t>27,21; 754,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,33; 609,89</t>
+          <t>72,87; 616,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,12; 659,06</t>
+          <t>73,91; 596,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 19,38</t>
+          <t>9,4; 19,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,91</t>
+          <t>1,88; 10,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -4,2</t>
+          <t>-8,6; -3,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 29,12</t>
+          <t>15,12; 29,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,45; 21,56</t>
+          <t>8,31; 21,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,18; -8,87</t>
+          <t>-16,0; -8,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 22,47</t>
+          <t>13,78; 22,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 14,08</t>
+          <t>6,05; 13,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -6,6</t>
+          <t>-10,77; -6,62</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>107,16; 428,76</t>
+          <t>115,33; 447,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,82; 224,19</t>
+          <t>20,97; 234,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>104,0; 306,91</t>
+          <t>98,51; 310,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,4; 225,73</t>
+          <t>53,66; 232,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>129,73; 308,7</t>
+          <t>129,33; 311,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,02; 195,78</t>
+          <t>61,02; 195,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,61; 17,92</t>
+          <t>10,86; 17,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,89; 13,3</t>
+          <t>6,98; 13,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -2,08</t>
+          <t>-5,08; -2,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,2; 30,54</t>
+          <t>19,65; 30,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,33; 19,44</t>
+          <t>9,62; 19,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,53; -8,54</t>
+          <t>-14,44; -8,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,82; 22,45</t>
+          <t>15,7; 21,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,16</t>
+          <t>9,56; 15,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -5,3</t>
+          <t>-8,5; -5,31</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>203,02; 751,68</t>
+          <t>234,0; 761,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>135,22; 565,19</t>
+          <t>137,15; 568,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>143,01; 339,88</t>
+          <t>144,23; 351,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,69; 215,14</t>
+          <t>69,21; 213,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>194,57; 393,22</t>
+          <t>191,48; 377,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>112,01; 262,3</t>
+          <t>118,55; 280,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 13,65</t>
+          <t>5,06; 14,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,03</t>
+          <t>2,64; 10,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; -2,95</t>
+          <t>-7,53; -3,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,04; 30,15</t>
+          <t>17,84; 30,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,38</t>
+          <t>4,88; 14,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -5,7</t>
+          <t>-11,98; -5,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,86; 19,73</t>
+          <t>12,57; 19,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,91</t>
+          <t>4,88; 10,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -4,82</t>
+          <t>-8,29; -4,77</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>75,38; 406,83</t>
+          <t>64,36; 430,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>37,1; 313,59</t>
+          <t>36,77; 334,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>163,03; 477,92</t>
+          <t>163,02; 481,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,88; 230,51</t>
+          <t>42,78; 232,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>162,92; 395,67</t>
+          <t>161,12; 387,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,63; 210,33</t>
+          <t>58,91; 215,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,05; 18,29</t>
+          <t>11,11; 18,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,48; 11,94</t>
+          <t>5,69; 12,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -2,19</t>
+          <t>-5,2; -2,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,48; 32,96</t>
+          <t>22,7; 33,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,82; 19,66</t>
+          <t>9,94; 19,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,03; -6,51</t>
+          <t>-11,79; -6,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,24; 23,89</t>
+          <t>17,64; 23,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,07</t>
+          <t>9,13; 14,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -4,54</t>
+          <t>-7,42; -4,53</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>225,34; 779,16</t>
+          <t>212,94; 696,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>125,44; 506,37</t>
+          <t>119,33; 481,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>203,34; 481,63</t>
+          <t>203,75; 482,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>83,5; 275,14</t>
+          <t>92,06; 277,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>245,26; 506,48</t>
+          <t>247,54; 494,74</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>130,92; 306,61</t>
+          <t>128,2; 301,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,35; 15,45</t>
+          <t>11,37; 15,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,38</t>
+          <t>6,68; 10,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>21,66; 27,87</t>
+          <t>22,22; 27,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,02; 16,55</t>
+          <t>11,37; 16,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -8,48</t>
+          <t>-11,67; -8,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>16,91; 20,24</t>
+          <t>16,77; 20,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,37; 12,53</t>
+          <t>9,45; 12,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -6,02</t>
+          <t>-7,74; -6,02</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>232,26; 429,43</t>
+          <t>225,48; 413,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>134,83; 282,14</t>
+          <t>133,97; 279,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>194,7; 318,25</t>
+          <t>196,61; 313,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>95,79; 183,11</t>
+          <t>101,44; 181,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>226,33; 324,57</t>
+          <t>219,64; 325,69</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>125,23; 198,79</t>
+          <t>126,28; 201,3</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
